--- a/GST Calculator.xlsx
+++ b/GST Calculator.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\bet general\do wrzucenia na github\Done\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972"/>
   </bookViews>
   <sheets>
     <sheet name="www.Best-Excel-Tutorial.com" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Amount before GST</t>
   </si>
@@ -30,16 +35,23 @@
     <t>Amount with GST</t>
   </si>
   <si>
-    <t>www.Best-Excel-Tutorial.com</t>
+    <t>GST Calculator</t>
   </si>
   <si>
-    <t>GST Calculator</t>
+    <t>GST rate</t>
+  </si>
+  <si>
+    <t>Best-Excel-Tutorial.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -77,13 +89,28 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -95,68 +122,12 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -178,6 +149,51 @@
         <color indexed="64"/>
       </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -190,26 +206,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -483,7 +501,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -491,63 +509,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8">
+        <v>120</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
+        <f>B3*B5</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10"/>
+      <c r="B5" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="F5" s="12"/>
     </row>
-    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>120</v>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="10">
+        <f>B3+(B3*B5)</f>
+        <v>138</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7">
-        <f>C3*0.15</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8">
-        <f>C3+C4</f>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="A8" r:id="rId1" display="www.Best-Excel-Tutorial.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
